--- a/cartera_proveedores.xlsx
+++ b/cartera_proveedores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="69">
   <si>
     <t>empresa</t>
   </si>
@@ -188,9 +188,6 @@
     <t>FETC286</t>
   </si>
   <si>
-    <t>cancelado</t>
-  </si>
-  <si>
     <t>PST10791</t>
   </si>
   <si>
@@ -204,6 +201,12 @@
   </si>
   <si>
     <t>MC0013</t>
+  </si>
+  <si>
+    <t>FVE18051</t>
+  </si>
+  <si>
+    <t>FER18519</t>
   </si>
   <si>
     <t>forma pago</t>
@@ -535,8 +538,8 @@
         <v>870211.0</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F44" si="1">TODAY()-D2</f>
-        <v>0</v>
+        <f t="shared" ref="F2:F46" si="1">TODAY()-D2</f>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -560,7 +563,7 @@
       </c>
       <c r="F3" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -584,7 +587,7 @@
       </c>
       <c r="F4" s="4">
         <f t="shared" si="1"/>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
@@ -608,7 +611,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -632,7 +635,7 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>8</v>
@@ -656,7 +659,7 @@
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
@@ -680,7 +683,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
@@ -704,7 +707,7 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>8</v>
@@ -728,7 +731,7 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>8</v>
@@ -752,7 +755,7 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>8</v>
@@ -776,7 +779,7 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>8</v>
@@ -800,7 +803,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>8</v>
@@ -824,7 +827,7 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>8</v>
@@ -848,7 +851,7 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>8</v>
@@ -872,7 +875,7 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>8</v>
@@ -896,7 +899,7 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>8</v>
@@ -920,7 +923,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>8</v>
@@ -944,7 +947,7 @@
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -968,7 +971,7 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>8</v>
@@ -992,7 +995,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>8</v>
@@ -1016,7 +1019,7 @@
       </c>
       <c r="F22" s="4">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>8</v>
@@ -1040,7 +1043,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -1064,7 +1067,7 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>8</v>
@@ -1088,7 +1091,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>8</v>
@@ -1112,7 +1115,7 @@
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>8</v>
@@ -1136,7 +1139,7 @@
       </c>
       <c r="F27" s="4">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -1160,7 +1163,7 @@
       </c>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
-        <v>-53</v>
+        <v>-52</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>8</v>
@@ -1184,7 +1187,7 @@
       </c>
       <c r="F29" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>8</v>
@@ -1208,7 +1211,7 @@
       </c>
       <c r="F30" s="4">
         <f t="shared" si="1"/>
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
@@ -1232,7 +1235,7 @@
       </c>
       <c r="F31" s="4">
         <f t="shared" si="1"/>
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -1256,7 +1259,7 @@
       </c>
       <c r="F32" s="4">
         <f t="shared" si="1"/>
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
@@ -1280,7 +1283,7 @@
       </c>
       <c r="F33" s="4">
         <f t="shared" si="1"/>
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>8</v>
@@ -1304,7 +1307,7 @@
       </c>
       <c r="F34" s="4">
         <f t="shared" si="1"/>
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>8</v>
@@ -1328,7 +1331,7 @@
       </c>
       <c r="F35" s="4">
         <f t="shared" si="1"/>
-        <v>-45</v>
+        <v>-44</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>8</v>
@@ -1352,7 +1355,7 @@
       </c>
       <c r="F36" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -1376,7 +1379,7 @@
       </c>
       <c r="F37" s="4">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>8</v>
@@ -1400,7 +1403,7 @@
       </c>
       <c r="F38" s="4">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>8</v>
@@ -1424,10 +1427,10 @@
       </c>
       <c r="F39" s="4">
         <f t="shared" si="1"/>
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1448,7 +1451,7 @@
       </c>
       <c r="F40" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>8</v>
@@ -1459,7 +1462,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2">
         <v>45117.0</v>
@@ -1472,7 +1475,7 @@
       </c>
       <c r="F41" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>8</v>
@@ -1483,7 +1486,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2">
         <v>45118.0</v>
@@ -1496,7 +1499,7 @@
       </c>
       <c r="F42" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>8</v>
@@ -1504,10 +1507,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C43" s="2">
         <v>45091.0</v>
@@ -1520,7 +1523,7 @@
       </c>
       <c r="F43" s="4">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>8</v>
@@ -1531,7 +1534,7 @@
         <v>24</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="2">
         <v>45162.0</v>
@@ -1544,11 +1547,131 @@
       </c>
       <c r="F44" s="4">
         <f t="shared" si="1"/>
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45162.0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45193.0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>749700.0</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44961.0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45004.0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>848000.0</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="3"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="3"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="3"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3"/>
+      <c r="G55" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1582,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
@@ -1599,7 +1722,7 @@
         <v>302000.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -1616,7 +1739,7 @@
         <v>1000000.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -1633,7 +1756,7 @@
         <v>1000000.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1650,7 +1773,7 @@
         <v>500000.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1667,7 +1790,7 @@
         <v>600000.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -1684,7 +1807,7 @@
         <v>244000.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1701,7 +1824,7 @@
         <v>300000.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -1718,7 +1841,7 @@
         <v>300000.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -1735,7 +1858,7 @@
         <v>1000000.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -1752,7 +1875,7 @@
         <v>1000000.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1769,7 +1892,7 @@
         <v>1000000.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -1786,7 +1909,7 @@
         <v>800000.0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -1803,7 +1926,7 @@
         <v>500000.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -1820,7 +1943,7 @@
         <v>2000000.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -1837,7 +1960,7 @@
         <v>300000.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -1854,7 +1977,7 @@
         <v>312000.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
@@ -1871,7 +1994,7 @@
         <v>420000.0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -1888,7 +2011,7 @@
         <v>200000.0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
@@ -1905,7 +2028,7 @@
         <v>2790000.0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -1922,7 +2045,7 @@
         <v>400000.0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
@@ -1939,7 +2062,7 @@
         <v>200000.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -1956,7 +2079,7 @@
         <v>150000.0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1973,7 +2096,7 @@
         <v>400000.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -1990,7 +2113,7 @@
         <v>400000.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -2007,7 +2130,7 @@
         <v>150000.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -2024,7 +2147,7 @@
         <v>250000.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -2041,7 +2164,7 @@
         <v>200000.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
@@ -2058,7 +2181,7 @@
         <v>300000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
@@ -2075,7 +2198,7 @@
         <v>200000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
@@ -2092,7 +2215,7 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
@@ -2109,7 +2232,7 @@
         <v>300000.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33">
@@ -2126,16 +2249,42 @@
         <v>111598.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45163.0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>168000.0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35">
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45163.0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>300000.0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="36">
       <c r="C36" s="6"/>
